--- a/Annual_Time_Sheet_21_Sep_2021.xlsx
+++ b/Annual_Time_Sheet_21_Sep_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Att\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -97,6 +97,13 @@
   </si>
   <si>
     <t>used to initialize Github username in git local respoitory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git pull https://github.com/AleemIshtiaq/Aleem_Ishtiaq_WorkPlace_For_Freelancing_Community_Marketplace.git
+</t>
+  </si>
+  <si>
+    <t>this command is same as SVN checkout to down load the source code</t>
   </si>
 </sst>
 </file>
@@ -517,10 +524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +609,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Annual_Time_Sheet_21_Sep_2021.xlsx
+++ b/Annual_Time_Sheet_21_Sep_2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,19 @@
   </si>
   <si>
     <t>this command is same as SVN checkout to down load the source code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git remote add origin https://github.com/AleemIshtiaq/AleemIshtiaq-21-Sep-2021-CommonCode.git
+</t>
+  </si>
+  <si>
+    <t>his command is same to make respository ready for commit</t>
+  </si>
+  <si>
+    <t>git push -u origin master</t>
+  </si>
+  <si>
+    <t>use permannent commit to git hub</t>
   </si>
 </sst>
 </file>
@@ -524,10 +537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,6 +630,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Annual_Time_Sheet_21_Sep_2021.xlsx
+++ b/Annual_Time_Sheet_21_Sep_2021.xlsx
@@ -106,10 +106,6 @@
     <t>this command is same as SVN checkout to down load the source code</t>
   </si>
   <si>
-    <t xml:space="preserve">git remote add origin https://github.com/AleemIshtiaq/AleemIshtiaq-21-Sep-2021-CommonCode.git
-</t>
-  </si>
-  <si>
     <t>his command is same to make respository ready for commit</t>
   </si>
   <si>
@@ -117,6 +113,9 @@
   </si>
   <si>
     <t>use permannent commit to git hub</t>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/AleemIshtiaq/Aleem_Ishtiaq_WorkPlace_For_Freelancing_Community_Marketplace.git</t>
   </si>
 </sst>
 </file>
@@ -539,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,18 +631,18 @@
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
